--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11194.39998363233</v>
+        <v>11781.60876359689</v>
       </c>
       <c r="AB2" t="n">
-        <v>15316.67191967887</v>
+        <v>16120.11687824946</v>
       </c>
       <c r="AC2" t="n">
-        <v>13854.8702487482</v>
+        <v>14581.63554811486</v>
       </c>
       <c r="AD2" t="n">
-        <v>11194399.98363233</v>
+        <v>11781608.76359689</v>
       </c>
       <c r="AE2" t="n">
-        <v>15316671.91967887</v>
+        <v>16120116.87824946</v>
       </c>
       <c r="AF2" t="n">
         <v>1.347023943397287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>117</v>
+        <v>116.5125</v>
       </c>
       <c r="AH2" t="n">
-        <v>13854870.2487482</v>
+        <v>14581635.54811486</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3824.514844118662</v>
+        <v>4137.679193932248</v>
       </c>
       <c r="AB3" t="n">
-        <v>5232.869935410316</v>
+        <v>5661.355214661328</v>
       </c>
       <c r="AC3" t="n">
-        <v>4733.452173153638</v>
+        <v>5121.043418735784</v>
       </c>
       <c r="AD3" t="n">
-        <v>3824514.844118662</v>
+        <v>4137679.193932248</v>
       </c>
       <c r="AE3" t="n">
-        <v>5232869.935410315</v>
+        <v>5661355.214661328</v>
       </c>
       <c r="AF3" t="n">
         <v>2.542997383074688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4733452.173153638</v>
+        <v>5121043.418735784</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2937.333182097304</v>
+        <v>3201.58909097793</v>
       </c>
       <c r="AB4" t="n">
-        <v>4018.988845740036</v>
+        <v>4380.555438418437</v>
       </c>
       <c r="AC4" t="n">
-        <v>3635.422190988728</v>
+        <v>3962.481375523788</v>
       </c>
       <c r="AD4" t="n">
-        <v>2937333.182097305</v>
+        <v>3201589.09097793</v>
       </c>
       <c r="AE4" t="n">
-        <v>4018988.845740036</v>
+        <v>4380555.438418437</v>
       </c>
       <c r="AF4" t="n">
         <v>2.982211565960939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.63333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3635422.190988728</v>
+        <v>3962481.375523788</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2568.855016325156</v>
+        <v>2813.533882665084</v>
       </c>
       <c r="AB5" t="n">
-        <v>3514.820763221178</v>
+        <v>3849.601182617234</v>
       </c>
       <c r="AC5" t="n">
-        <v>3179.37120266114</v>
+        <v>3482.200648697294</v>
       </c>
       <c r="AD5" t="n">
-        <v>2568855.016325156</v>
+        <v>2813533.882665084</v>
       </c>
       <c r="AE5" t="n">
-        <v>3514820.763221178</v>
+        <v>3849601.182617234</v>
       </c>
       <c r="AF5" t="n">
         <v>3.216509354773331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.79583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3179371.20266114</v>
+        <v>3482200.648697294</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2349.900429044143</v>
+        <v>2584.790774113723</v>
       </c>
       <c r="AB6" t="n">
-        <v>3215.237437308628</v>
+        <v>3536.624770063513</v>
       </c>
       <c r="AC6" t="n">
-        <v>2908.379688905857</v>
+        <v>3199.094265692557</v>
       </c>
       <c r="AD6" t="n">
-        <v>2349900.429044143</v>
+        <v>2584790.774113723</v>
       </c>
       <c r="AE6" t="n">
-        <v>3215237.437308628</v>
+        <v>3536624.770063512</v>
       </c>
       <c r="AF6" t="n">
         <v>3.365676435753567e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.63333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2908379.688905857</v>
+        <v>3199094.265692557</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2200.665986938346</v>
+        <v>2425.700490929873</v>
       </c>
       <c r="AB7" t="n">
-        <v>3011.048289860538</v>
+        <v>3318.950426043409</v>
       </c>
       <c r="AC7" t="n">
-        <v>2723.678067108951</v>
+        <v>3002.194455557879</v>
       </c>
       <c r="AD7" t="n">
-        <v>2200665.986938346</v>
+        <v>2425700.490929874</v>
       </c>
       <c r="AE7" t="n">
-        <v>3011048.289860538</v>
+        <v>3318950.426043409</v>
       </c>
       <c r="AF7" t="n">
         <v>3.465121156407058e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.29583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2723678.067108951</v>
+        <v>3002194.455557879</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2069.793785219669</v>
+        <v>2294.794123792417</v>
       </c>
       <c r="AB8" t="n">
-        <v>2831.983169794817</v>
+        <v>3139.838559344605</v>
       </c>
       <c r="AC8" t="n">
-        <v>2561.702670782941</v>
+        <v>2840.176774031732</v>
       </c>
       <c r="AD8" t="n">
-        <v>2069793.785219669</v>
+        <v>2294794.123792417</v>
       </c>
       <c r="AE8" t="n">
-        <v>2831983.169794817</v>
+        <v>3139838.559344605</v>
       </c>
       <c r="AF8" t="n">
         <v>3.543471542376475e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.29583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2561702.670782941</v>
+        <v>2840176.774031732</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2036.528435826493</v>
+        <v>2251.808583966455</v>
       </c>
       <c r="AB9" t="n">
-        <v>2786.468051191434</v>
+        <v>3081.023847366544</v>
       </c>
       <c r="AC9" t="n">
-        <v>2520.531451218195</v>
+        <v>2786.975255617892</v>
       </c>
       <c r="AD9" t="n">
-        <v>2036528.435826493</v>
+        <v>2251808.583966455</v>
       </c>
       <c r="AE9" t="n">
-        <v>2786468.051191434</v>
+        <v>3081023.847366543</v>
       </c>
       <c r="AF9" t="n">
         <v>3.563812507964689e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.04166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2520531.451218195</v>
+        <v>2786975.255617892</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2043.654747768152</v>
+        <v>2258.934895908114</v>
       </c>
       <c r="AB10" t="n">
-        <v>2796.218585580707</v>
+        <v>3090.774381755816</v>
       </c>
       <c r="AC10" t="n">
-        <v>2529.351408290316</v>
+        <v>2795.795212690014</v>
       </c>
       <c r="AD10" t="n">
-        <v>2043654.747768153</v>
+        <v>2258934.895908115</v>
       </c>
       <c r="AE10" t="n">
-        <v>2796218.585580707</v>
+        <v>3090774.381755816</v>
       </c>
       <c r="AF10" t="n">
         <v>3.563435823416759e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.04583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2529351.408290316</v>
+        <v>2795795.212690013</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6822.428910081679</v>
+        <v>7277.244904072714</v>
       </c>
       <c r="AB2" t="n">
-        <v>9334.748219095392</v>
+        <v>9957.047527139495</v>
       </c>
       <c r="AC2" t="n">
-        <v>8443.852950465987</v>
+        <v>9006.760885952899</v>
       </c>
       <c r="AD2" t="n">
-        <v>6822428.910081679</v>
+        <v>7277244.904072714</v>
       </c>
       <c r="AE2" t="n">
-        <v>9334748.219095392</v>
+        <v>9957047.527139496</v>
       </c>
       <c r="AF2" t="n">
         <v>1.880696313151718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.30833333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>8443852.950465987</v>
+        <v>9006760.885952899</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3021.230754428471</v>
+        <v>3301.831029136341</v>
       </c>
       <c r="AB3" t="n">
-        <v>4133.781205503211</v>
+        <v>4517.71088056898</v>
       </c>
       <c r="AC3" t="n">
-        <v>3739.258929048189</v>
+        <v>4086.546894774349</v>
       </c>
       <c r="AD3" t="n">
-        <v>3021230.754428471</v>
+        <v>3301831.029136341</v>
       </c>
       <c r="AE3" t="n">
-        <v>4133781.205503211</v>
+        <v>4517710.88056898</v>
       </c>
       <c r="AF3" t="n">
         <v>3.045878973085952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.38333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3739258.929048189</v>
+        <v>4086546.894774349</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2406.533793058383</v>
+        <v>2658.159740123632</v>
       </c>
       <c r="AB4" t="n">
-        <v>3292.725704440601</v>
+        <v>3637.011426168614</v>
       </c>
       <c r="AC4" t="n">
-        <v>2978.472584578216</v>
+        <v>3289.900160232541</v>
       </c>
       <c r="AD4" t="n">
-        <v>2406533.793058383</v>
+        <v>2658159.740123632</v>
       </c>
       <c r="AE4" t="n">
-        <v>3292725.704440601</v>
+        <v>3637011.426168614</v>
       </c>
       <c r="AF4" t="n">
         <v>3.465872298332851e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.55416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2978472.584578217</v>
+        <v>3289900.160232541</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2117.694155737656</v>
+        <v>2349.891684694988</v>
       </c>
       <c r="AB5" t="n">
-        <v>2897.522569952731</v>
+        <v>3215.225472904341</v>
       </c>
       <c r="AC5" t="n">
-        <v>2620.98708257491</v>
+        <v>2908.368866367522</v>
       </c>
       <c r="AD5" t="n">
-        <v>2117694.155737656</v>
+        <v>2349891.684694988</v>
       </c>
       <c r="AE5" t="n">
-        <v>2897522.569952731</v>
+        <v>3215225.472904341</v>
       </c>
       <c r="AF5" t="n">
         <v>3.693385856268365e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>2620987.08257491</v>
+        <v>2908368.866367522</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1927.117231129179</v>
+        <v>2149.735696162885</v>
       </c>
       <c r="AB6" t="n">
-        <v>2636.766814042882</v>
+        <v>2941.363219135527</v>
       </c>
       <c r="AC6" t="n">
-        <v>2385.117490036095</v>
+        <v>2660.643641730438</v>
       </c>
       <c r="AD6" t="n">
-        <v>1927117.231129179</v>
+        <v>2149735.696162885</v>
       </c>
       <c r="AE6" t="n">
-        <v>2636766.814042882</v>
+        <v>2941363.219135527</v>
       </c>
       <c r="AF6" t="n">
         <v>3.83310885652224e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.80416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2385117.490036095</v>
+        <v>2660643.641730438</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1897.717591111955</v>
+        <v>2120.336056145661</v>
       </c>
       <c r="AB7" t="n">
-        <v>2596.540929550737</v>
+        <v>2901.137334643382</v>
       </c>
       <c r="AC7" t="n">
-        <v>2348.730707502497</v>
+        <v>2624.25685919684</v>
       </c>
       <c r="AD7" t="n">
-        <v>1897717.591111955</v>
+        <v>2120336.056145661</v>
       </c>
       <c r="AE7" t="n">
-        <v>2596540.929550737</v>
+        <v>2901137.334643383</v>
       </c>
       <c r="AF7" t="n">
         <v>3.856602104352537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.52916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2348730.707502497</v>
+        <v>2624256.85919684</v>
       </c>
     </row>
   </sheetData>
@@ -5074,28 +5074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2293.871510600619</v>
+        <v>2574.366146728368</v>
       </c>
       <c r="AB2" t="n">
-        <v>3138.576199272765</v>
+        <v>3522.361334972768</v>
       </c>
       <c r="AC2" t="n">
-        <v>2839.034891833415</v>
+        <v>3186.192112828016</v>
       </c>
       <c r="AD2" t="n">
-        <v>2293871.510600619</v>
+        <v>2574366.146728368</v>
       </c>
       <c r="AE2" t="n">
-        <v>3138576.199272765</v>
+        <v>3522361.334972768</v>
       </c>
       <c r="AF2" t="n">
         <v>4.170846220981622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.47083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2839034.891833415</v>
+        <v>3186192.112828016</v>
       </c>
     </row>
     <row r="3">
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1611.690853135341</v>
+        <v>1845.509565790942</v>
       </c>
       <c r="AB3" t="n">
-        <v>2205.186528042031</v>
+        <v>2525.107606051006</v>
       </c>
       <c r="AC3" t="n">
-        <v>1994.72662080443</v>
+        <v>2284.114880140281</v>
       </c>
       <c r="AD3" t="n">
-        <v>1611690.853135341</v>
+        <v>1845509.565790942</v>
       </c>
       <c r="AE3" t="n">
-        <v>2205186.528042031</v>
+        <v>2525107.606051006</v>
       </c>
       <c r="AF3" t="n">
         <v>5.006166043445803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.87916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1994726.62080443</v>
+        <v>2284114.880140281</v>
       </c>
     </row>
     <row r="4">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1618.639922053537</v>
+        <v>1852.458634709138</v>
       </c>
       <c r="AB4" t="n">
-        <v>2214.694550707191</v>
+        <v>2534.615628716165</v>
       </c>
       <c r="AC4" t="n">
-        <v>2003.32721113102</v>
+        <v>2292.715470466872</v>
       </c>
       <c r="AD4" t="n">
-        <v>1618639.922053537</v>
+        <v>1852458.634709138</v>
       </c>
       <c r="AE4" t="n">
-        <v>2214694.550707191</v>
+        <v>2534615.628716165</v>
       </c>
       <c r="AF4" t="n">
         <v>5.010768356517231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.84166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2003327.21113102</v>
+        <v>2292715.470466872</v>
       </c>
     </row>
   </sheetData>
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3395.306949748243</v>
+        <v>3727.094407988662</v>
       </c>
       <c r="AB2" t="n">
-        <v>4645.608759016762</v>
+        <v>5099.574996810928</v>
       </c>
       <c r="AC2" t="n">
-        <v>4202.23837920887</v>
+        <v>4612.87871641356</v>
       </c>
       <c r="AD2" t="n">
-        <v>3395306.949748243</v>
+        <v>3727094.407988662</v>
       </c>
       <c r="AE2" t="n">
-        <v>4645608.759016762</v>
+        <v>5099574.996810928</v>
       </c>
       <c r="AF2" t="n">
         <v>3.106276660390156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4202238.37920887</v>
+        <v>4612878.71641356</v>
       </c>
     </row>
     <row r="3">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1977.565106619361</v>
+        <v>2214.52787460485</v>
       </c>
       <c r="AB3" t="n">
-        <v>2705.791822891739</v>
+        <v>3030.014736109173</v>
       </c>
       <c r="AC3" t="n">
-        <v>2447.554848917626</v>
+        <v>2740.834382347191</v>
       </c>
       <c r="AD3" t="n">
-        <v>1977565.106619361</v>
+        <v>2214527.87460485</v>
       </c>
       <c r="AE3" t="n">
-        <v>2705791.822891739</v>
+        <v>3030014.736109173</v>
       </c>
       <c r="AF3" t="n">
         <v>4.209789539742873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2447554.848917626</v>
+        <v>2740834.38234719</v>
       </c>
     </row>
     <row r="4">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1705.041387481733</v>
+        <v>1923.073180629043</v>
       </c>
       <c r="AB4" t="n">
-        <v>2332.912847469683</v>
+        <v>2631.23356573768</v>
       </c>
       <c r="AC4" t="n">
-        <v>2110.262919570921</v>
+        <v>2380.112327183178</v>
       </c>
       <c r="AD4" t="n">
-        <v>1705041.387481733</v>
+        <v>1923073.180629043</v>
       </c>
       <c r="AE4" t="n">
-        <v>2332912.847469683</v>
+        <v>2631233.56573768</v>
       </c>
       <c r="AF4" t="n">
         <v>4.506716707279767e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2110262.919570921</v>
+        <v>2380112.327183179</v>
       </c>
     </row>
     <row r="5">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1710.817316042687</v>
+        <v>1928.849109189998</v>
       </c>
       <c r="AB5" t="n">
-        <v>2340.815727742764</v>
+        <v>2639.136446010761</v>
       </c>
       <c r="AC5" t="n">
-        <v>2117.411560042503</v>
+        <v>2387.260967654759</v>
       </c>
       <c r="AD5" t="n">
-        <v>1710817.316042688</v>
+        <v>1928849.109189997</v>
       </c>
       <c r="AE5" t="n">
-        <v>2340815.727742764</v>
+        <v>2639136.446010761</v>
       </c>
       <c r="AF5" t="n">
         <v>4.510204106898488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.025</v>
       </c>
       <c r="AH5" t="n">
-        <v>2117411.560042502</v>
+        <v>2387260.967654759</v>
       </c>
     </row>
   </sheetData>
@@ -6198,28 +6198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1649.289153921638</v>
+        <v>1899.00438924586</v>
       </c>
       <c r="AB2" t="n">
-        <v>2256.630181897807</v>
+        <v>2598.301583527073</v>
       </c>
       <c r="AC2" t="n">
-        <v>2041.260564537833</v>
+        <v>2350.323327134426</v>
       </c>
       <c r="AD2" t="n">
-        <v>1649289.153921638</v>
+        <v>1899004.38924586</v>
       </c>
       <c r="AE2" t="n">
-        <v>2256630.181897807</v>
+        <v>2598301.583527073</v>
       </c>
       <c r="AF2" t="n">
         <v>5.318104825425022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.62916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2041260.564537833</v>
+        <v>2350323.327134426</v>
       </c>
     </row>
     <row r="3">
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1577.492563472684</v>
+        <v>1817.889235798024</v>
       </c>
       <c r="AB3" t="n">
-        <v>2158.394919403524</v>
+        <v>2487.316252031735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1952.400737621946</v>
+        <v>2249.930279908111</v>
       </c>
       <c r="AD3" t="n">
-        <v>1577492.563472684</v>
+        <v>1817889.235798024</v>
       </c>
       <c r="AE3" t="n">
-        <v>2158394.919403524</v>
+        <v>2487316.252031735</v>
       </c>
       <c r="AF3" t="n">
         <v>5.461089430445122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.27083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1952400.737621946</v>
+        <v>2249930.279908111</v>
       </c>
     </row>
   </sheetData>
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7667.452820933005</v>
+        <v>8152.796759618001</v>
       </c>
       <c r="AB2" t="n">
-        <v>10490.94721374611</v>
+        <v>11155.01620251836</v>
       </c>
       <c r="AC2" t="n">
-        <v>9489.705935802676</v>
+        <v>10090.39711231316</v>
       </c>
       <c r="AD2" t="n">
-        <v>7667452.820933005</v>
+        <v>8152796.759618001</v>
       </c>
       <c r="AE2" t="n">
-        <v>10490947.21374611</v>
+        <v>11155016.20251836</v>
       </c>
       <c r="AF2" t="n">
         <v>1.734712112498628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.6125</v>
       </c>
       <c r="AH2" t="n">
-        <v>9489705.935802676</v>
+        <v>10090397.11231316</v>
       </c>
     </row>
     <row r="3">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3210.001731749241</v>
+        <v>3501.201261876482</v>
       </c>
       <c r="AB3" t="n">
-        <v>4392.065984661262</v>
+        <v>4790.498028597963</v>
       </c>
       <c r="AC3" t="n">
-        <v>3972.89337138835</v>
+        <v>4333.299620254604</v>
       </c>
       <c r="AD3" t="n">
-        <v>3210001.731749241</v>
+        <v>3501201.261876483</v>
       </c>
       <c r="AE3" t="n">
-        <v>4392065.984661262</v>
+        <v>4790498.028597963</v>
       </c>
       <c r="AF3" t="n">
         <v>2.905532181936029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.67499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>3972893.37138835</v>
+        <v>4333299.620254604</v>
       </c>
     </row>
     <row r="4">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2539.905597448438</v>
+        <v>2792.202092972668</v>
       </c>
       <c r="AB4" t="n">
-        <v>3475.210891155826</v>
+        <v>3820.414086867926</v>
       </c>
       <c r="AC4" t="n">
-        <v>3143.541641192902</v>
+        <v>3455.799128401954</v>
       </c>
       <c r="AD4" t="n">
-        <v>2539905.597448437</v>
+        <v>2792202.092972668</v>
       </c>
       <c r="AE4" t="n">
-        <v>3475210.891155826</v>
+        <v>3820414.086867926</v>
       </c>
       <c r="AF4" t="n">
         <v>3.330663344215428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3143541.641192902</v>
+        <v>3455799.128401954</v>
       </c>
     </row>
     <row r="5">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2239.328084144886</v>
+        <v>2472.240887690244</v>
       </c>
       <c r="AB5" t="n">
-        <v>3063.947476909879</v>
+        <v>3382.629050108347</v>
       </c>
       <c r="AC5" t="n">
-        <v>2771.528629990777</v>
+        <v>3059.795681115569</v>
       </c>
       <c r="AD5" t="n">
-        <v>2239328.084144887</v>
+        <v>2472240.887690244</v>
       </c>
       <c r="AE5" t="n">
-        <v>3063947.476909879</v>
+        <v>3382629.050108347</v>
       </c>
       <c r="AF5" t="n">
         <v>3.557909424336394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.1</v>
       </c>
       <c r="AH5" t="n">
-        <v>2771528.629990777</v>
+        <v>3059795.681115569</v>
       </c>
     </row>
     <row r="6">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2037.582371564012</v>
+        <v>2260.786246410544</v>
       </c>
       <c r="AB6" t="n">
-        <v>2787.91009256387</v>
+        <v>3093.307481189061</v>
       </c>
       <c r="AC6" t="n">
-        <v>2521.835866185963</v>
+        <v>2798.086556668576</v>
       </c>
       <c r="AD6" t="n">
-        <v>2037582.371564012</v>
+        <v>2260786.246410544</v>
       </c>
       <c r="AE6" t="n">
-        <v>2787910.092563869</v>
+        <v>3093307.48118906</v>
       </c>
       <c r="AF6" t="n">
         <v>3.70391000324597e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.24583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2521835.866185963</v>
+        <v>2798086.556668576</v>
       </c>
     </row>
     <row r="7">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1933.491840122934</v>
+        <v>2156.661549550683</v>
       </c>
       <c r="AB7" t="n">
-        <v>2645.488835296037</v>
+        <v>2950.8394772878</v>
       </c>
       <c r="AC7" t="n">
-        <v>2393.007093822283</v>
+        <v>2669.215499104669</v>
       </c>
       <c r="AD7" t="n">
-        <v>1933491.840122933</v>
+        <v>2156661.549550683</v>
       </c>
       <c r="AE7" t="n">
-        <v>2645488.835296037</v>
+        <v>2950839.4772878</v>
       </c>
       <c r="AF7" t="n">
         <v>3.77228493000803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.425</v>
       </c>
       <c r="AH7" t="n">
-        <v>2393007.093822283</v>
+        <v>2669215.499104669</v>
       </c>
     </row>
     <row r="8">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1936.006950500158</v>
+        <v>2159.176659927908</v>
       </c>
       <c r="AB8" t="n">
-        <v>2648.930120272993</v>
+        <v>2954.280762264757</v>
       </c>
       <c r="AC8" t="n">
-        <v>2396.119947390913</v>
+        <v>2672.328352673298</v>
       </c>
       <c r="AD8" t="n">
-        <v>1936006.950500158</v>
+        <v>2159176.659927907</v>
       </c>
       <c r="AE8" t="n">
-        <v>2648930.120272994</v>
+        <v>2954280.762264756</v>
       </c>
       <c r="AF8" t="n">
         <v>3.77469816271728e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.39583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2396119.947390913</v>
+        <v>2672328.352673299</v>
       </c>
     </row>
     <row r="9">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1940.05407246579</v>
+        <v>2163.223781893539</v>
       </c>
       <c r="AB9" t="n">
-        <v>2654.467571092791</v>
+        <v>2959.818213084554</v>
       </c>
       <c r="AC9" t="n">
-        <v>2401.12891167633</v>
+        <v>2677.337316958716</v>
       </c>
       <c r="AD9" t="n">
-        <v>1940054.07246579</v>
+        <v>2163223.781893539</v>
       </c>
       <c r="AE9" t="n">
-        <v>2654467.571092791</v>
+        <v>2959818.213084554</v>
       </c>
       <c r="AF9" t="n">
         <v>3.778720217232695e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.35</v>
       </c>
       <c r="AH9" t="n">
-        <v>2401128.91167633</v>
+        <v>2677337.316958716</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1563.300707464984</v>
+        <v>1811.383537850673</v>
       </c>
       <c r="AB2" t="n">
-        <v>2138.97699591329</v>
+        <v>2478.414869089032</v>
       </c>
       <c r="AC2" t="n">
-        <v>1934.836033496394</v>
+        <v>2241.878432460289</v>
       </c>
       <c r="AD2" t="n">
-        <v>1563300.707464984</v>
+        <v>1811383.537850673</v>
       </c>
       <c r="AE2" t="n">
-        <v>2138976.99591329</v>
+        <v>2478414.869089032</v>
       </c>
       <c r="AF2" t="n">
         <v>5.721654169487175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.50416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1934836.033496394</v>
+        <v>2241878.432460289</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1574.029031891552</v>
+        <v>1822.010377050756</v>
       </c>
       <c r="AB3" t="n">
-        <v>2153.655962693991</v>
+        <v>2492.954979305643</v>
       </c>
       <c r="AC3" t="n">
-        <v>1948.114060289604</v>
+        <v>2255.030854965</v>
       </c>
       <c r="AD3" t="n">
-        <v>1574029.031891552</v>
+        <v>1822010.377050756</v>
       </c>
       <c r="AE3" t="n">
-        <v>2153655.962693991</v>
+        <v>2492954.979305643</v>
       </c>
       <c r="AF3" t="n">
         <v>5.724538067758087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>1948114.060289604</v>
+        <v>2255030.854965</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4826.538005885146</v>
+        <v>5210.007426391307</v>
       </c>
       <c r="AB2" t="n">
-        <v>6603.88223148128</v>
+        <v>7128.562010094696</v>
       </c>
       <c r="AC2" t="n">
-        <v>5973.616979915381</v>
+        <v>6448.222056850608</v>
       </c>
       <c r="AD2" t="n">
-        <v>4826538.005885146</v>
+        <v>5210007.426391307</v>
       </c>
       <c r="AE2" t="n">
-        <v>6603882.231481279</v>
+        <v>7128562.010094697</v>
       </c>
       <c r="AF2" t="n">
         <v>2.401293701113778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5973616.979915381</v>
+        <v>6448222.056850608</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2483.30323307604</v>
+        <v>2742.157049814272</v>
       </c>
       <c r="AB3" t="n">
-        <v>3397.765039101429</v>
+        <v>3751.940250987122</v>
       </c>
       <c r="AC3" t="n">
-        <v>3073.487112562644</v>
+        <v>3393.860339313985</v>
       </c>
       <c r="AD3" t="n">
-        <v>2483303.23307604</v>
+        <v>2742157.049814272</v>
       </c>
       <c r="AE3" t="n">
-        <v>3397765.039101429</v>
+        <v>3751940.250987122</v>
       </c>
       <c r="AF3" t="n">
         <v>3.538300442383963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.77916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3073487.112562644</v>
+        <v>3393860.339313985</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2015.707958676726</v>
+        <v>2245.729124256476</v>
       </c>
       <c r="AB4" t="n">
-        <v>2757.980555820497</v>
+        <v>3072.705662384516</v>
       </c>
       <c r="AC4" t="n">
-        <v>2494.762762423009</v>
+        <v>2779.450946535904</v>
       </c>
       <c r="AD4" t="n">
-        <v>2015707.958676726</v>
+        <v>2245729.124256476</v>
       </c>
       <c r="AE4" t="n">
-        <v>2757980.555820497</v>
+        <v>3072705.662384516</v>
       </c>
       <c r="AF4" t="n">
         <v>3.94882396426157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.29166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2494762.76242301</v>
+        <v>2779450.946535904</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1803.480846546706</v>
+        <v>2023.913568342861</v>
       </c>
       <c r="AB5" t="n">
-        <v>2467.60205820481</v>
+        <v>2769.207832971652</v>
       </c>
       <c r="AC5" t="n">
-        <v>2232.097581070983</v>
+        <v>2504.918524000441</v>
       </c>
       <c r="AD5" t="n">
-        <v>1803480.846546706</v>
+        <v>2023913.568342861</v>
       </c>
       <c r="AE5" t="n">
-        <v>2467602.05820481</v>
+        <v>2769207.832971653</v>
       </c>
       <c r="AF5" t="n">
         <v>4.136607103635716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.14166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2232097.581070983</v>
+        <v>2504918.524000441</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1805.722746493808</v>
+        <v>2026.155468289963</v>
       </c>
       <c r="AB6" t="n">
-        <v>2470.66952461808</v>
+        <v>2772.275299384922</v>
       </c>
       <c r="AC6" t="n">
-        <v>2234.872292794986</v>
+        <v>2507.693235724445</v>
       </c>
       <c r="AD6" t="n">
-        <v>1805722.746493808</v>
+        <v>2026155.468289963</v>
       </c>
       <c r="AE6" t="n">
-        <v>2470669.52461808</v>
+        <v>2772275.299384922</v>
       </c>
       <c r="AF6" t="n">
         <v>4.14019246190539e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2234872.292794986</v>
+        <v>2507693.235724445</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6068.768260947383</v>
+        <v>6493.280589373036</v>
       </c>
       <c r="AB2" t="n">
-        <v>8303.556469788558</v>
+        <v>8884.392965702731</v>
       </c>
       <c r="AC2" t="n">
-        <v>7511.076694426326</v>
+        <v>8036.47897037957</v>
       </c>
       <c r="AD2" t="n">
-        <v>6068768.260947383</v>
+        <v>6493280.589373035</v>
       </c>
       <c r="AE2" t="n">
-        <v>8303556.469788559</v>
+        <v>8884392.965702731</v>
       </c>
       <c r="AF2" t="n">
         <v>2.04071047637455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.37916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7511076.694426326</v>
+        <v>8036478.97037957</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2838.316836987456</v>
+        <v>3108.44588389701</v>
       </c>
       <c r="AB3" t="n">
-        <v>3883.510314067885</v>
+        <v>4253.11279330203</v>
       </c>
       <c r="AC3" t="n">
-        <v>3512.873540234058</v>
+        <v>3847.20167759042</v>
       </c>
       <c r="AD3" t="n">
-        <v>2838316.836987456</v>
+        <v>3108445.88389701</v>
       </c>
       <c r="AE3" t="n">
-        <v>3883510.314067885</v>
+        <v>4253112.793302029</v>
       </c>
       <c r="AF3" t="n">
         <v>3.197282292794122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3512873.540234058</v>
+        <v>3847201.67759042</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2270.888377930722</v>
+        <v>2512.131473347691</v>
       </c>
       <c r="AB4" t="n">
-        <v>3107.129663209557</v>
+        <v>3437.209109253304</v>
       </c>
       <c r="AC4" t="n">
-        <v>2810.589569036591</v>
+        <v>3109.166696019322</v>
       </c>
       <c r="AD4" t="n">
-        <v>2270888.377930722</v>
+        <v>2512131.47334769</v>
       </c>
       <c r="AE4" t="n">
-        <v>3107129.663209557</v>
+        <v>3437209.109253304</v>
       </c>
       <c r="AF4" t="n">
         <v>3.614815717375731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.7625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2810589.569036591</v>
+        <v>3109166.696019323</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1997.676393576746</v>
+        <v>2229.234233141506</v>
       </c>
       <c r="AB5" t="n">
-        <v>2733.308972954196</v>
+        <v>3050.136624657775</v>
       </c>
       <c r="AC5" t="n">
-        <v>2472.445800798684</v>
+        <v>2759.035866093961</v>
       </c>
       <c r="AD5" t="n">
-        <v>1997676.393576746</v>
+        <v>2229234.233141506</v>
       </c>
       <c r="AE5" t="n">
-        <v>2733308.972954196</v>
+        <v>3050136.624657774</v>
       </c>
       <c r="AF5" t="n">
         <v>3.837330997345261e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.93333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2472445.800798684</v>
+        <v>2759035.866093961</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1863.11276879928</v>
+        <v>2085.053683349388</v>
       </c>
       <c r="AB6" t="n">
-        <v>2549.193085005521</v>
+        <v>2852.86243563509</v>
       </c>
       <c r="AC6" t="n">
-        <v>2305.901674787558</v>
+        <v>2580.589248795652</v>
       </c>
       <c r="AD6" t="n">
-        <v>1863112.76879928</v>
+        <v>2085053.683349388</v>
       </c>
       <c r="AE6" t="n">
-        <v>2549193.08500552</v>
+        <v>2852862.43563509</v>
       </c>
       <c r="AF6" t="n">
         <v>3.940127980296964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.7375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2305901.674787559</v>
+        <v>2580589.248795652</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1864.968035263173</v>
+        <v>2086.90894981328</v>
       </c>
       <c r="AB7" t="n">
-        <v>2551.731542429999</v>
+        <v>2855.400893059567</v>
       </c>
       <c r="AC7" t="n">
-        <v>2308.197865398192</v>
+        <v>2582.885439406286</v>
       </c>
       <c r="AD7" t="n">
-        <v>1864968.035263173</v>
+        <v>2086908.94981328</v>
       </c>
       <c r="AE7" t="n">
-        <v>2551731.542429999</v>
+        <v>2855400.893059567</v>
       </c>
       <c r="AF7" t="n">
         <v>3.946050440220107e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.66666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2308197.865398192</v>
+        <v>2582885.439406286</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9817.280504390317</v>
+        <v>10363.82944702546</v>
       </c>
       <c r="AB2" t="n">
-        <v>13432.43629395624</v>
+        <v>14180.24866930729</v>
       </c>
       <c r="AC2" t="n">
-        <v>12150.46342660329</v>
+        <v>12826.90563841207</v>
       </c>
       <c r="AD2" t="n">
-        <v>9817280.504390318</v>
+        <v>10363829.44702546</v>
       </c>
       <c r="AE2" t="n">
-        <v>13432436.29395624</v>
+        <v>14180248.66930729</v>
       </c>
       <c r="AF2" t="n">
         <v>1.469016768503658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>109.0833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12150463.42660329</v>
+        <v>12826905.63841207</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3614.984699515502</v>
+        <v>3917.496933150143</v>
       </c>
       <c r="AB3" t="n">
-        <v>4946.181547746669</v>
+        <v>5360.09213170345</v>
       </c>
       <c r="AC3" t="n">
-        <v>4474.124922838943</v>
+        <v>4848.532461590026</v>
       </c>
       <c r="AD3" t="n">
-        <v>3614984.699515502</v>
+        <v>3917496.933150143</v>
       </c>
       <c r="AE3" t="n">
-        <v>4946181.547746669</v>
+        <v>5360092.13170345</v>
       </c>
       <c r="AF3" t="n">
         <v>2.655766964211063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.32916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4474124.922838943</v>
+        <v>4848532.461590027</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2799.850673748439</v>
+        <v>3063.378887283701</v>
       </c>
       <c r="AB4" t="n">
-        <v>3830.879212516907</v>
+        <v>4191.450140320127</v>
       </c>
       <c r="AC4" t="n">
-        <v>3465.265477146891</v>
+        <v>3791.424021665035</v>
       </c>
       <c r="AD4" t="n">
-        <v>2799850.67374844</v>
+        <v>3063378.887283701</v>
       </c>
       <c r="AE4" t="n">
-        <v>3830879.212516907</v>
+        <v>4191450.140320127</v>
       </c>
       <c r="AF4" t="n">
         <v>3.090319044946439e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.85</v>
       </c>
       <c r="AH4" t="n">
-        <v>3465265.477146891</v>
+        <v>3791424.021665035</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2461.657165033369</v>
+        <v>2705.592388807383</v>
       </c>
       <c r="AB5" t="n">
-        <v>3368.147933848319</v>
+        <v>3701.910868678497</v>
       </c>
       <c r="AC5" t="n">
-        <v>3046.696622267023</v>
+        <v>3348.605691036218</v>
       </c>
       <c r="AD5" t="n">
-        <v>2461657.165033368</v>
+        <v>2705592.388807382</v>
       </c>
       <c r="AE5" t="n">
-        <v>3368147.933848319</v>
+        <v>3701910.868678497</v>
       </c>
       <c r="AF5" t="n">
         <v>3.322592900489949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.22499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>3046696.622267023</v>
+        <v>3348605.691036218</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2254.357309035998</v>
+        <v>2488.529697833241</v>
       </c>
       <c r="AB6" t="n">
-        <v>3084.511125448506</v>
+        <v>3404.916118757583</v>
       </c>
       <c r="AC6" t="n">
-        <v>2790.129712774138</v>
+        <v>3079.955703213017</v>
       </c>
       <c r="AD6" t="n">
-        <v>2254357.309035998</v>
+        <v>2488529.697833241</v>
       </c>
       <c r="AE6" t="n">
-        <v>3084511.125448506</v>
+        <v>3404916.118757583</v>
       </c>
       <c r="AF6" t="n">
         <v>3.467956339886385e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.20416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2790129.712774138</v>
+        <v>3079955.703213017</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2088.017326002963</v>
+        <v>2312.528365049922</v>
       </c>
       <c r="AB7" t="n">
-        <v>2856.917422260398</v>
+        <v>3164.103330612631</v>
       </c>
       <c r="AC7" t="n">
-        <v>2584.25723318865</v>
+        <v>2862.125749585758</v>
       </c>
       <c r="AD7" t="n">
-        <v>2088017.326002963</v>
+        <v>2312528.365049922</v>
       </c>
       <c r="AE7" t="n">
-        <v>2856917.422260398</v>
+        <v>3164103.330612632</v>
       </c>
       <c r="AF7" t="n">
         <v>3.572556486753661e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.85</v>
       </c>
       <c r="AH7" t="n">
-        <v>2584257.233188651</v>
+        <v>2862125.749585758</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2001.668039225733</v>
+        <v>2216.383088906998</v>
       </c>
       <c r="AB8" t="n">
-        <v>2738.770518630118</v>
+        <v>3032.55312216365</v>
       </c>
       <c r="AC8" t="n">
-        <v>2477.386104220624</v>
+        <v>2743.130508399275</v>
       </c>
       <c r="AD8" t="n">
-        <v>2001668.039225733</v>
+        <v>2216383.088906998</v>
       </c>
       <c r="AE8" t="n">
-        <v>2738770.518630118</v>
+        <v>3032553.12216365</v>
       </c>
       <c r="AF8" t="n">
         <v>3.62793303509516e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2477386.104220624</v>
+        <v>2743130.508399275</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2004.999612463446</v>
+        <v>2219.714662144711</v>
       </c>
       <c r="AB9" t="n">
-        <v>2743.328924112595</v>
+        <v>3037.111527646128</v>
       </c>
       <c r="AC9" t="n">
-        <v>2481.509461881615</v>
+        <v>2747.253866060267</v>
       </c>
       <c r="AD9" t="n">
-        <v>2004999.612463446</v>
+        <v>2219714.662144711</v>
       </c>
       <c r="AE9" t="n">
-        <v>2743328.924112595</v>
+        <v>3037111.527646128</v>
       </c>
       <c r="AF9" t="n">
         <v>3.630240391276055e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.14166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2481509.461881615</v>
+        <v>2747253.866060267</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3832.074203568112</v>
+        <v>4174.649264534265</v>
       </c>
       <c r="AB2" t="n">
-        <v>5243.212984504453</v>
+        <v>5711.939296263416</v>
       </c>
       <c r="AC2" t="n">
-        <v>4742.808096158793</v>
+        <v>5166.799826584971</v>
       </c>
       <c r="AD2" t="n">
-        <v>3832074.203568113</v>
+        <v>4174649.264534265</v>
       </c>
       <c r="AE2" t="n">
-        <v>5243212.984504453</v>
+        <v>5711939.296263415</v>
       </c>
       <c r="AF2" t="n">
         <v>2.843381377340101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.25416666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>4742808.096158793</v>
+        <v>5166799.826584971</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2146.970033145243</v>
+        <v>2394.347674219337</v>
       </c>
       <c r="AB3" t="n">
-        <v>2937.579116982348</v>
+        <v>3276.052119031398</v>
       </c>
       <c r="AC3" t="n">
-        <v>2657.220688975738</v>
+        <v>2963.390302758944</v>
       </c>
       <c r="AD3" t="n">
-        <v>2146970.033145243</v>
+        <v>2394347.674219337</v>
       </c>
       <c r="AE3" t="n">
-        <v>2937579.116982348</v>
+        <v>3276052.119031398</v>
       </c>
       <c r="AF3" t="n">
         <v>3.957530478830305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>2657220.688975737</v>
+        <v>2963390.302758944</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1751.288277178687</v>
+        <v>1979.693754082071</v>
       </c>
       <c r="AB4" t="n">
-        <v>2396.189882221833</v>
+        <v>2708.704332259518</v>
       </c>
       <c r="AC4" t="n">
-        <v>2167.500882936203</v>
+        <v>2450.189392479076</v>
       </c>
       <c r="AD4" t="n">
-        <v>1751288.277178687</v>
+        <v>1979693.754082071</v>
       </c>
       <c r="AE4" t="n">
-        <v>2396189.882221833</v>
+        <v>2708704.332259518</v>
       </c>
       <c r="AF4" t="n">
         <v>4.34872913064442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.93333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2167500.882936203</v>
+        <v>2450189.392479076</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1733.985472862343</v>
+        <v>1962.390949765727</v>
       </c>
       <c r="AB5" t="n">
-        <v>2372.51542201036</v>
+        <v>2685.029872048044</v>
       </c>
       <c r="AC5" t="n">
-        <v>2146.085879979999</v>
+        <v>2428.774389522872</v>
       </c>
       <c r="AD5" t="n">
-        <v>1733985.472862343</v>
+        <v>1962390.949765727</v>
       </c>
       <c r="AE5" t="n">
-        <v>2372515.422010359</v>
+        <v>2685029.872048044</v>
       </c>
       <c r="AF5" t="n">
         <v>4.375096686832871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.65833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2146085.879979999</v>
+        <v>2428774.389522872</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2635.575602699</v>
+        <v>2926.868886481786</v>
       </c>
       <c r="AB2" t="n">
-        <v>3606.110813002405</v>
+        <v>4004.671134826741</v>
       </c>
       <c r="AC2" t="n">
-        <v>3261.948658217632</v>
+        <v>3622.470942309963</v>
       </c>
       <c r="AD2" t="n">
-        <v>2635575.602699</v>
+        <v>2926868.886481786</v>
       </c>
       <c r="AE2" t="n">
-        <v>3606110.813002405</v>
+        <v>4004671.134826741</v>
       </c>
       <c r="AF2" t="n">
         <v>3.756983983714409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3261948.658217632</v>
+        <v>3622470.942309964</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1659.679942498251</v>
+        <v>1885.200858119289</v>
       </c>
       <c r="AB3" t="n">
-        <v>2270.847317237567</v>
+        <v>2579.414983270884</v>
       </c>
       <c r="AC3" t="n">
-        <v>2054.12083643464</v>
+        <v>2333.239237499176</v>
       </c>
       <c r="AD3" t="n">
-        <v>1659679.942498251</v>
+        <v>1885200.858119289</v>
       </c>
       <c r="AE3" t="n">
-        <v>2270847.317237567</v>
+        <v>2579414.983270884</v>
       </c>
       <c r="AF3" t="n">
         <v>4.797077634458328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.34583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2054120.83643464</v>
+        <v>2333239.237499177</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1649.504349474825</v>
+        <v>1875.025265095863</v>
       </c>
       <c r="AB4" t="n">
-        <v>2256.924621947435</v>
+        <v>2565.492287980752</v>
       </c>
       <c r="AC4" t="n">
-        <v>2041.526903642373</v>
+        <v>2320.645304706909</v>
       </c>
       <c r="AD4" t="n">
-        <v>1649504.349474825</v>
+        <v>1875025.265095863</v>
       </c>
       <c r="AE4" t="n">
-        <v>2256924.621947435</v>
+        <v>2565492.287980752</v>
       </c>
       <c r="AF4" t="n">
         <v>4.824878879839848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>2041526.903642373</v>
+        <v>2320645.304706909</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1962.242262524022</v>
+        <v>2222.673699573023</v>
       </c>
       <c r="AB2" t="n">
-        <v>2684.826431604325</v>
+        <v>3041.160213199062</v>
       </c>
       <c r="AC2" t="n">
-        <v>2428.590365149571</v>
+        <v>2750.916150746395</v>
       </c>
       <c r="AD2" t="n">
-        <v>1962242.262524022</v>
+        <v>2222673.699573023</v>
       </c>
       <c r="AE2" t="n">
-        <v>2684826.431604325</v>
+        <v>3041160.213199062</v>
       </c>
       <c r="AF2" t="n">
         <v>4.683910267602153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2428590.365149571</v>
+        <v>2750916.150746395</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1589.600440839922</v>
+        <v>1831.45309744254</v>
       </c>
       <c r="AB3" t="n">
-        <v>2174.96145137923</v>
+        <v>2505.874925929104</v>
       </c>
       <c r="AC3" t="n">
-        <v>1967.386183037165</v>
+        <v>2266.717740015978</v>
       </c>
       <c r="AD3" t="n">
-        <v>1589600.440839922</v>
+        <v>1831453.09744254</v>
       </c>
       <c r="AE3" t="n">
-        <v>2174961.45137923</v>
+        <v>2505874.925929104</v>
       </c>
       <c r="AF3" t="n">
         <v>5.220193811507458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.86666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1967386.183037165</v>
+        <v>2266717.740015978</v>
       </c>
     </row>
     <row r="4">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1599.376287356813</v>
+        <v>1841.228943959431</v>
       </c>
       <c r="AB4" t="n">
-        <v>2188.337195863551</v>
+        <v>2519.250670413425</v>
       </c>
       <c r="AC4" t="n">
-        <v>1979.485365240877</v>
+        <v>2278.81692221969</v>
       </c>
       <c r="AD4" t="n">
-        <v>1599376.287356813</v>
+        <v>1841228.943959431</v>
       </c>
       <c r="AE4" t="n">
-        <v>2188337.195863551</v>
+        <v>2519250.670413425</v>
       </c>
       <c r="AF4" t="n">
         <v>5.219581615681082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.87083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1979485.365240877</v>
+        <v>2278816.92221969</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1582.968289342385</v>
+        <v>1847.246386810599</v>
       </c>
       <c r="AB2" t="n">
-        <v>2165.887049110426</v>
+        <v>2527.484001193235</v>
       </c>
       <c r="AC2" t="n">
-        <v>1959.177828984891</v>
+        <v>2286.264475465427</v>
       </c>
       <c r="AD2" t="n">
-        <v>1582968.289342385</v>
+        <v>1847246.386810599</v>
       </c>
       <c r="AE2" t="n">
-        <v>2165887.049110426</v>
+        <v>2527484.001193235</v>
       </c>
       <c r="AF2" t="n">
         <v>6.002196856519422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.20416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1959177.828984892</v>
+        <v>2286264.475465428</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5410.561843182</v>
+        <v>5824.103894772215</v>
       </c>
       <c r="AB2" t="n">
-        <v>7402.969410984158</v>
+        <v>7968.795890157629</v>
       </c>
       <c r="AC2" t="n">
-        <v>6696.440400532374</v>
+        <v>7208.265194675961</v>
       </c>
       <c r="AD2" t="n">
-        <v>5410561.843182</v>
+        <v>5824103.894772215</v>
       </c>
       <c r="AE2" t="n">
-        <v>7402969.410984158</v>
+        <v>7968795.89015763</v>
       </c>
       <c r="AF2" t="n">
         <v>2.21226249410645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>6696440.400532374</v>
+        <v>7208265.194675961</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2657.295182373013</v>
+        <v>2926.599036917533</v>
       </c>
       <c r="AB3" t="n">
-        <v>3635.82850011262</v>
+        <v>4004.301914748008</v>
       </c>
       <c r="AC3" t="n">
-        <v>3288.830130979084</v>
+        <v>3622.136960077342</v>
       </c>
       <c r="AD3" t="n">
-        <v>2657295.182373013</v>
+        <v>2926599.036917533</v>
       </c>
       <c r="AE3" t="n">
-        <v>3635828.50011262</v>
+        <v>4004301.914748008</v>
       </c>
       <c r="AF3" t="n">
         <v>3.357106159951549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3288830.130979083</v>
+        <v>3622136.960077342</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2150.518012279463</v>
+        <v>2381.341137084974</v>
       </c>
       <c r="AB4" t="n">
-        <v>2942.43361855958</v>
+        <v>3258.25600111624</v>
       </c>
       <c r="AC4" t="n">
-        <v>2661.611883735774</v>
+        <v>2947.292621360601</v>
       </c>
       <c r="AD4" t="n">
-        <v>2150518.012279463</v>
+        <v>2381341.137084974</v>
       </c>
       <c r="AE4" t="n">
-        <v>2942433.61855958</v>
+        <v>3258256.001116239</v>
       </c>
       <c r="AF4" t="n">
         <v>3.772503462718292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.04166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2661611.883735774</v>
+        <v>2947292.6213606</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1880.460521710882</v>
+        <v>2101.629045905392</v>
       </c>
       <c r="AB5" t="n">
-        <v>2572.929045868019</v>
+        <v>2875.541577937602</v>
       </c>
       <c r="AC5" t="n">
-        <v>2327.372308858971</v>
+        <v>2601.103925587189</v>
       </c>
       <c r="AD5" t="n">
-        <v>1880460.521710882</v>
+        <v>2101629.045905392</v>
       </c>
       <c r="AE5" t="n">
-        <v>2572929.045868019</v>
+        <v>2875541.577937602</v>
       </c>
       <c r="AF5" t="n">
         <v>3.998688381502279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.325</v>
       </c>
       <c r="AH5" t="n">
-        <v>2327372.308858971</v>
+        <v>2601103.925587189</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1826.419467385956</v>
+        <v>2047.65531138817</v>
       </c>
       <c r="AB6" t="n">
-        <v>2498.987691217601</v>
+        <v>2801.692333218025</v>
       </c>
       <c r="AC6" t="n">
-        <v>2260.487813319045</v>
+        <v>2534.302749135582</v>
       </c>
       <c r="AD6" t="n">
-        <v>1826419.467385956</v>
+        <v>2047655.31138817</v>
       </c>
       <c r="AE6" t="n">
-        <v>2498987.691217601</v>
+        <v>2801692.333218025</v>
       </c>
       <c r="AF6" t="n">
         <v>4.038270742289476e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.87916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2260487.813319045</v>
+        <v>2534302.749135582</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8663.061151201262</v>
+        <v>9178.984080971793</v>
       </c>
       <c r="AB2" t="n">
-        <v>11853.18245435881</v>
+        <v>12559.09096778417</v>
       </c>
       <c r="AC2" t="n">
-        <v>10721.93135696042</v>
+        <v>11360.46895261326</v>
       </c>
       <c r="AD2" t="n">
-        <v>8663061.151201261</v>
+        <v>9178984.080971794</v>
       </c>
       <c r="AE2" t="n">
-        <v>11853182.45435881</v>
+        <v>12559090.96778417</v>
       </c>
       <c r="AF2" t="n">
         <v>1.596914761870368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.5583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10721931.35696042</v>
+        <v>11360468.95261326</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3416.709518723186</v>
+        <v>3708.697897285499</v>
       </c>
       <c r="AB3" t="n">
-        <v>4674.892698102983</v>
+        <v>5074.404079270085</v>
       </c>
       <c r="AC3" t="n">
-        <v>4228.727500248969</v>
+        <v>4590.110075915212</v>
       </c>
       <c r="AD3" t="n">
-        <v>3416709.518723186</v>
+        <v>3708697.897285499</v>
       </c>
       <c r="AE3" t="n">
-        <v>4674892.698102983</v>
+        <v>5074404.079270085</v>
       </c>
       <c r="AF3" t="n">
         <v>2.774850656855722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.01666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4228727.500248969</v>
+        <v>4590110.075915213</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2670.544615712757</v>
+        <v>2923.587679103231</v>
       </c>
       <c r="AB4" t="n">
-        <v>3653.956959331805</v>
+        <v>4000.181642134748</v>
       </c>
       <c r="AC4" t="n">
-        <v>3305.228435493842</v>
+        <v>3618.409920499453</v>
       </c>
       <c r="AD4" t="n">
-        <v>2670544.615712757</v>
+        <v>2923587.679103231</v>
       </c>
       <c r="AE4" t="n">
-        <v>3653956.959331805</v>
+        <v>4000181.642134748</v>
       </c>
       <c r="AF4" t="n">
         <v>3.209158018870676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.03333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3305228.435493841</v>
+        <v>3618409.920499453</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2346.459281979559</v>
+        <v>2589.799170965996</v>
       </c>
       <c r="AB5" t="n">
-        <v>3210.52910808217</v>
+        <v>3543.477479591668</v>
       </c>
       <c r="AC5" t="n">
-        <v>2904.12071601259</v>
+        <v>3205.292962241183</v>
       </c>
       <c r="AD5" t="n">
-        <v>2346459.281979559</v>
+        <v>2589799.170965996</v>
       </c>
       <c r="AE5" t="n">
-        <v>3210529.10808217</v>
+        <v>3543477.479591668</v>
       </c>
       <c r="AF5" t="n">
         <v>3.434762024116453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.67916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2904120.71601259</v>
+        <v>3205292.962241183</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2140.868328863025</v>
+        <v>2374.471889056505</v>
       </c>
       <c r="AB6" t="n">
-        <v>2929.230495995223</v>
+        <v>3248.857192913852</v>
       </c>
       <c r="AC6" t="n">
-        <v>2649.668848658261</v>
+        <v>2938.79082222174</v>
       </c>
       <c r="AD6" t="n">
-        <v>2140868.328863025</v>
+        <v>2374471.889056505</v>
       </c>
       <c r="AE6" t="n">
-        <v>2929230.495995223</v>
+        <v>3248857.192913852</v>
       </c>
       <c r="AF6" t="n">
         <v>3.582151400365871e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.71666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2649668.848658261</v>
+        <v>2938790.82222174</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1993.956654776025</v>
+        <v>2217.75656636884</v>
       </c>
       <c r="AB7" t="n">
-        <v>2728.219462223755</v>
+        <v>3034.432374620491</v>
       </c>
       <c r="AC7" t="n">
-        <v>2467.842025829183</v>
+        <v>2744.830407639183</v>
       </c>
       <c r="AD7" t="n">
-        <v>1993956.654776025</v>
+        <v>2217756.56636884</v>
       </c>
       <c r="AE7" t="n">
-        <v>2728219.462223755</v>
+        <v>3034432.374620491</v>
       </c>
       <c r="AF7" t="n">
         <v>3.680804022868816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.49166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2467842.025829183</v>
+        <v>2744830.407639183</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1967.776555165708</v>
+        <v>2191.57646675852</v>
       </c>
       <c r="AB8" t="n">
-        <v>2692.39869495244</v>
+        <v>2998.611607348998</v>
       </c>
       <c r="AC8" t="n">
-        <v>2435.43994231148</v>
+        <v>2712.428324121433</v>
       </c>
       <c r="AD8" t="n">
-        <v>1967776.555165709</v>
+        <v>2191576.46675852</v>
       </c>
       <c r="AE8" t="n">
-        <v>2692398.69495244</v>
+        <v>2998611.607348999</v>
       </c>
       <c r="AF8" t="n">
         <v>3.700848978038737e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>2435439.94231148</v>
+        <v>2712428.324121433</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1975.211278509522</v>
+        <v>2199.011190102337</v>
       </c>
       <c r="AB9" t="n">
-        <v>2702.571211428291</v>
+        <v>3008.784123825026</v>
       </c>
       <c r="AC9" t="n">
-        <v>2444.641608092093</v>
+        <v>2721.629989902092</v>
       </c>
       <c r="AD9" t="n">
-        <v>1975211.278509522</v>
+        <v>2199011.190102337</v>
       </c>
       <c r="AE9" t="n">
-        <v>2702571.211428291</v>
+        <v>3008784.123825026</v>
       </c>
       <c r="AF9" t="n">
         <v>3.700848978038737e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.25416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2444641.608092093</v>
+        <v>2721629.989902092</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1668.272464360918</v>
+        <v>1966.115902520978</v>
       </c>
       <c r="AB2" t="n">
-        <v>2282.603984725379</v>
+        <v>2690.126516741096</v>
       </c>
       <c r="AC2" t="n">
-        <v>2064.755464078002</v>
+        <v>2433.384617599604</v>
       </c>
       <c r="AD2" t="n">
-        <v>1668272.464360918</v>
+        <v>1966115.902520978</v>
       </c>
       <c r="AE2" t="n">
-        <v>2282603.984725379</v>
+        <v>2690126.516741096</v>
       </c>
       <c r="AF2" t="n">
         <v>6.183805143751112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.25416666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>2064755.464078002</v>
+        <v>2433384.617599604</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3004.578935030384</v>
+        <v>3316.133163589803</v>
       </c>
       <c r="AB2" t="n">
-        <v>4110.997451576322</v>
+        <v>4537.279691893847</v>
       </c>
       <c r="AC2" t="n">
-        <v>3718.649624618884</v>
+        <v>4104.248086211371</v>
       </c>
       <c r="AD2" t="n">
-        <v>3004578.935030384</v>
+        <v>3316133.163589803</v>
       </c>
       <c r="AE2" t="n">
-        <v>4110997.451576322</v>
+        <v>4537279.691893848</v>
       </c>
       <c r="AF2" t="n">
         <v>3.404882141872306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3718649.624618884</v>
+        <v>4104248.08621137</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1807.140973573253</v>
+        <v>2033.708242417898</v>
       </c>
       <c r="AB3" t="n">
-        <v>2472.610005475941</v>
+        <v>2782.609338151641</v>
       </c>
       <c r="AC3" t="n">
-        <v>2236.627576883255</v>
+        <v>2517.041008335183</v>
       </c>
       <c r="AD3" t="n">
-        <v>1807140.973573253</v>
+        <v>2033708.242417898</v>
       </c>
       <c r="AE3" t="n">
-        <v>2472610.005475941</v>
+        <v>2782609.338151641</v>
       </c>
       <c r="AF3" t="n">
         <v>4.499122891283177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.14166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2236627.576883255</v>
+        <v>2517041.008335183</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1673.456688923324</v>
+        <v>1900.057112156891</v>
       </c>
       <c r="AB4" t="n">
-        <v>2289.697269483509</v>
+        <v>2599.741965456803</v>
       </c>
       <c r="AC4" t="n">
-        <v>2071.171775694304</v>
+        <v>2351.62624103437</v>
       </c>
       <c r="AD4" t="n">
-        <v>1673456.688923324</v>
+        <v>1900057.112156891</v>
       </c>
       <c r="AE4" t="n">
-        <v>2289697.269483509</v>
+        <v>2599741.965456803</v>
       </c>
       <c r="AF4" t="n">
         <v>4.655591521008911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.52083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2071171.775694303</v>
+        <v>2351626.24103437</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1679.305422607331</v>
+        <v>1905.804360614413</v>
       </c>
       <c r="AB5" t="n">
-        <v>2297.699764937887</v>
+        <v>2607.605604347092</v>
       </c>
       <c r="AC5" t="n">
-        <v>2078.410524214089</v>
+        <v>2358.739385265657</v>
       </c>
       <c r="AD5" t="n">
-        <v>1679305.422607331</v>
+        <v>1905804.360614413</v>
       </c>
       <c r="AE5" t="n">
-        <v>2297699.764937887</v>
+        <v>2607605.604347092</v>
       </c>
       <c r="AF5" t="n">
         <v>4.659750155686007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.48333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2078410.524214089</v>
+        <v>2358739.385265657</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4300.019752015927</v>
+        <v>4663.039443245009</v>
       </c>
       <c r="AB2" t="n">
-        <v>5883.476728191387</v>
+        <v>6380.176285029518</v>
       </c>
       <c r="AC2" t="n">
-        <v>5321.965966764029</v>
+        <v>5771.261215019716</v>
       </c>
       <c r="AD2" t="n">
-        <v>4300019.752015927</v>
+        <v>4663039.44324501</v>
       </c>
       <c r="AE2" t="n">
-        <v>5883476.728191387</v>
+        <v>6380176.285029518</v>
       </c>
       <c r="AF2" t="n">
         <v>2.610156746614799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.88333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5321965.966764029</v>
+        <v>5771261.215019717</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2314.930677595316</v>
+        <v>2572.845941384053</v>
       </c>
       <c r="AB3" t="n">
-        <v>3167.390280619788</v>
+        <v>3520.281322953948</v>
       </c>
       <c r="AC3" t="n">
-        <v>2865.098997697493</v>
+        <v>3184.310614236958</v>
       </c>
       <c r="AD3" t="n">
-        <v>2314930.677595316</v>
+        <v>2572845.941384053</v>
       </c>
       <c r="AE3" t="n">
-        <v>3167390.280619788</v>
+        <v>3520281.322953948</v>
       </c>
       <c r="AF3" t="n">
         <v>3.736333615654312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.61666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2865098.997697494</v>
+        <v>3184310.614236958</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1879.689120011896</v>
+        <v>2108.973705372048</v>
       </c>
       <c r="AB4" t="n">
-        <v>2571.873580031625</v>
+        <v>2885.590865043387</v>
       </c>
       <c r="AC4" t="n">
-        <v>2326.417575200647</v>
+        <v>2610.194122835861</v>
       </c>
       <c r="AD4" t="n">
-        <v>1879689.120011896</v>
+        <v>2108973.705372048</v>
       </c>
       <c r="AE4" t="n">
-        <v>2571873.580031625</v>
+        <v>2885590.865043387</v>
       </c>
       <c r="AF4" t="n">
         <v>4.144127212704788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2326417.575200647</v>
+        <v>2610194.122835861</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1765.796225698264</v>
+        <v>1985.458543301589</v>
       </c>
       <c r="AB5" t="n">
-        <v>2416.040297431836</v>
+        <v>2716.591971194214</v>
       </c>
       <c r="AC5" t="n">
-        <v>2185.456802378795</v>
+        <v>2457.324246224216</v>
       </c>
       <c r="AD5" t="n">
-        <v>1765796.225698264</v>
+        <v>1985458.543301589</v>
       </c>
       <c r="AE5" t="n">
-        <v>2416040.297431836</v>
+        <v>2716591.971194214</v>
       </c>
       <c r="AF5" t="n">
         <v>4.25244015448664e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.35</v>
       </c>
       <c r="AH5" t="n">
-        <v>2185456.802378795</v>
+        <v>2457324.246224216</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1773.261603862078</v>
+        <v>1992.923921465403</v>
       </c>
       <c r="AB6" t="n">
-        <v>2426.254757184805</v>
+        <v>2726.806430947184</v>
       </c>
       <c r="AC6" t="n">
-        <v>2194.696408429026</v>
+        <v>2466.563852274447</v>
       </c>
       <c r="AD6" t="n">
-        <v>1773261.603862078</v>
+        <v>1992923.921465403</v>
       </c>
       <c r="AE6" t="n">
-        <v>2426254.757184805</v>
+        <v>2726806.430947184</v>
       </c>
       <c r="AF6" t="n">
         <v>4.25244015448664e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.35416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2194696.408429026</v>
+        <v>2466563.852274447</v>
       </c>
     </row>
   </sheetData>
